--- a/data/base_scenario/archetypes/stats_class.xlsx
+++ b/data/base_scenario/archetypes/stats_class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier\Documents\GitHub\CogniCity\data\base_scenario\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D11D48-EC9A-41BC-B29C-3C40E97DE3B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1240BE4-4CB9-457C-A072-FC63EE7CEAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -381,7 +390,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,15 +419,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <f>87-B2</f>
         <v>22</v>
       </c>
       <c r="D2">
-        <f>100-C2-B2</f>
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -426,15 +433,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">87-B3</f>
         <v>22</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="1">100-C3-B3</f>
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -442,15 +447,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -458,15 +461,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,15 +475,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -490,15 +489,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -506,15 +503,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -522,15 +517,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
